--- a/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_2.xlsx
+++ b/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,79 +477,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.04539833333333337</v>
+        <v>0.05062690476190479</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.04539833333333337</v>
+        <v>0.05062690476190479</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.252</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.01006217569786533</v>
+        <v>1.03835661904762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.05315785714285717</v>
+        <v>0.05127928571428573</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.0456295073891626</v>
+        <v>0.05127928571428573</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.007528349753694569</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="n">
-        <v>-0.112</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.0001675862068965597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.05592285714285716</v>
+        <v>0.05163285714285715</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.04586068144499183</v>
+        <v>0.05163285714285715</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.01006217569786533</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.252</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1.03835661904762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.05557333333333337</v>
+        <v>0.05180761904761908</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.04609185550082105</v>
+        <v>0.05180761904761908</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.009481477832512318</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -557,16 +549,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.05438666666666669</v>
+        <v>0.05190285714285717</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.04632302955665028</v>
+        <v>0.05190285714285717</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.008063637110016411</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -574,16 +566,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.05412571428571432</v>
+        <v>0.05210238095238098</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.04655420361247951</v>
+        <v>0.05210238095238098</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.007571510673234805</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -591,16 +583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.05383571428571432</v>
+        <v>0.05267476190476195</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.04678537766830874</v>
+        <v>0.05265557142857146</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.007050336617405582</v>
+        <v>1.919047619048514e-05</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -608,16 +600,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.05355904761904764</v>
+        <v>0.05337333333333337</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.04701655172413797</v>
+        <v>0.05320876190476194</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.006542495894909676</v>
+        <v>0.0001645714285714306</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -625,16 +617,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.05335000000000004</v>
+        <v>0.05445285714285718</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.04724772577996719</v>
+        <v>0.05376195238095241</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.006102274220032844</v>
+        <v>0.0006909047619047676</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -642,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.05282380952380956</v>
+        <v>0.05570857142857146</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.04747889983579642</v>
+        <v>0.0543151428571429</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.005344909688013141</v>
+        <v>0.001393428571428566</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -659,16 +651,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.05234619047619052</v>
+        <v>0.05729857142857146</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.04771007389162565</v>
+        <v>0.05486833333333337</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.004636116584564871</v>
+        <v>0.002430238095238096</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -676,16 +668,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.05187142857142861</v>
+        <v>0.05945523809523813</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.04794124794745488</v>
+        <v>0.05542152380952384</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.003930180623973732</v>
+        <v>0.004033714285714293</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -693,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.05139523809523813</v>
+        <v>0.06213142857142861</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.04817242200328411</v>
+        <v>0.05597471428571432</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.003222816091954024</v>
+        <v>0.006156714285714286</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -710,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.05102857142857146</v>
+        <v>0.06540523809523814</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.04840359605911333</v>
+        <v>0.05652790476190479</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.002624975369458125</v>
+        <v>0.008877333333333348</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -727,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.05070142857142861</v>
+        <v>0.06935523809523814</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.04863477011494256</v>
+        <v>0.05708109523809527</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.002066658456486042</v>
+        <v>0.01227414285714287</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -744,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.05060047619047622</v>
+        <v>0.07445142857142861</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.04886594417077179</v>
+        <v>0.05763428571428575</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.001734532019704436</v>
+        <v>0.01681714285714286</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -761,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.05044714285714289</v>
+        <v>0.08109285714285719</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.04909711822660102</v>
+        <v>0.05818747619047623</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.001350024630541874</v>
+        <v>0.02290538095238096</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -778,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.05045238095238098</v>
+        <v>0.08987904761904768</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.04932829228243024</v>
+        <v>0.0587406666666667</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.001124088669950743</v>
+        <v>0.03113838095238097</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -795,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.05054285714285717</v>
+        <v>0.1014219047619048</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.04955946633825947</v>
+        <v>0.05929385714285718</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0009833908045977016</v>
+        <v>0.04212804761904765</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -812,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.05077285714285718</v>
+        <v>0.1161014285714287</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.0497906403940887</v>
+        <v>0.05984704761904765</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.0009822167487684719</v>
+        <v>0.05625438095238101</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -829,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.05088904761904765</v>
+        <v>0.134997142857143</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.05002181444991793</v>
+        <v>0.06040023809523813</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.0008672331691297261</v>
+        <v>0.07459690476190482</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -846,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.05109238095238099</v>
+        <v>0.1593666666666668</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.05025298850574716</v>
+        <v>0.0609534285714286</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.0008393924466338284</v>
+        <v>0.09841323809523816</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -863,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.05103952380952384</v>
+        <v>0.1902428571428573</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.05048416256157638</v>
+        <v>0.06150661904761909</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.0005553612479474584</v>
+        <v>0.1287362380952382</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -880,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.05082523809523813</v>
+        <v>0.2286952380952382</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.05071533661740561</v>
+        <v>0.06205980952380956</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.0001099014778325191</v>
+        <v>0.1666354285714287</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -897,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.05097714285714289</v>
+        <v>0.2753238095238097</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.05094651067323484</v>
+        <v>0.06261300000000004</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>3.063218390804423e-05</v>
+        <v>0.2127108095238097</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -914,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.0512019047619048</v>
+        <v>0.3303000000000002</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.05117768472906407</v>
+        <v>0.06316619047619051</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.422003284072854e-05</v>
+        <v>0.2671338095238097</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -931,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.05149619047619051</v>
+        <v>0.3935476190476193</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.0514088587848933</v>
+        <v>0.06371938095238099</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>8.733169129721691e-05</v>
+        <v>0.3298282380952383</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -948,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.05180761904761908</v>
+        <v>0.463914285714286</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.05164003284072252</v>
+        <v>0.06427257142857147</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.0001675862068965597</v>
+        <v>0.3996417142857145</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -965,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.05190285714285717</v>
+        <v>0.5402380952380956</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.05187120689655175</v>
+        <v>0.06482576190476194</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3.165024630542163e-05</v>
+        <v>0.4754123333333337</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -982,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.05210238095238098</v>
+        <v>0.6206571428571432</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.05210238095238098</v>
+        <v>0.06537895238095243</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>0.5552781904761908</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -999,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.05267476190476195</v>
+        <v>0.703071428571429</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.05265557142857146</v>
+        <v>0.0659321428571429</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.919047619048514e-05</v>
+        <v>0.6371392857142861</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1016,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.05337333333333337</v>
+        <v>0.7847333333333338</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.05320876190476194</v>
+        <v>0.06648533333333337</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.0001645714285714306</v>
+        <v>0.7182480000000004</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1033,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.05445285714285718</v>
+        <v>0.8629047619047625</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.05376195238095241</v>
+        <v>0.06703852380952385</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.0006909047619047676</v>
+        <v>0.7958662380952386</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1050,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.05570857142857146</v>
+        <v>0.934228571428572</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.0543151428571429</v>
+        <v>0.06759171428571434</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.001393428571428566</v>
+        <v>0.8666368571428577</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1067,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.05729857142857146</v>
+        <v>0.9959761904761912</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.05486833333333337</v>
+        <v>0.0681449047619048</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.002430238095238096</v>
+        <v>0.9278312857142864</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1084,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.05945523809523813</v>
+        <v>1.045695238095239</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.05542152380952384</v>
+        <v>0.06869809523809528</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.004033714285714293</v>
+        <v>0.9769971428571436</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1101,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.06213142857142861</v>
+        <v>1.081642857142858</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.05597471428571432</v>
+        <v>0.06925128571428577</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.006156714285714286</v>
+        <v>1.012391571428572</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1118,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.06540523809523814</v>
+        <v>1.102619047619048</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.05652790476190479</v>
+        <v>0.06980447619047624</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.008877333333333348</v>
+        <v>1.032814571428572</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1135,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.06935523809523814</v>
+        <v>1.108714285714286</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.05708109523809527</v>
+        <v>0.07035766666666671</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.01227414285714287</v>
+        <v>1.03835661904762</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1152,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.07445142857142861</v>
+        <v>1.100428571428572</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.05763428571428575</v>
+        <v>0.07091085714285719</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.01681714285714286</v>
+        <v>1.029517714285715</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1169,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.08109285714285719</v>
+        <v>1.079504761904763</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.05818747619047623</v>
+        <v>0.07146404761904766</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.02290538095238096</v>
+        <v>1.008040714285715</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1186,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.08987904761904768</v>
+        <v>1.049185714285715</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.0587406666666667</v>
+        <v>0.07201723809523813</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.03113838095238097</v>
+        <v>0.9771684761904769</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1203,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.1014219047619048</v>
+        <v>1.012614285714286</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.05929385714285718</v>
+        <v>0.07257042857142862</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.04212804761904765</v>
+        <v>0.9400438571428578</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1220,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.1161014285714287</v>
+        <v>0.9736428571428577</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.05984704761904765</v>
+        <v>0.0731236190476191</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.05625438095238101</v>
+        <v>0.9005192380952386</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1237,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.134997142857143</v>
+        <v>0.9348238095238102</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.06040023809523813</v>
+        <v>0.07367680952380957</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.07459690476190482</v>
+        <v>0.8611470000000006</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1254,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.1593666666666668</v>
+        <v>0.8980333333333339</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.0609534285714286</v>
+        <v>0.07423000000000005</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.09841323809523816</v>
+        <v>0.8238033333333339</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1271,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.1902428571428573</v>
+        <v>0.8639095238095243</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.06150661904761909</v>
+        <v>0.07478319047619052</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.1287362380952382</v>
+        <v>0.7891263333333338</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1288,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.2286952380952382</v>
+        <v>0.832328571428572</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.06205980952380956</v>
+        <v>0.07533638095238099</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.1666354285714287</v>
+        <v>0.7569921904761909</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1305,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.2753238095238097</v>
+        <v>0.8011428571428577</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.06261300000000004</v>
+        <v>0.07588957142857147</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.2127108095238097</v>
+        <v>0.7252532857142863</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1322,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.3303000000000002</v>
+        <v>0.7686857142857149</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.06316619047619051</v>
+        <v>0.07644276190476196</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.2671338095238097</v>
+        <v>0.6922429523809529</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1339,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.3935476190476193</v>
+        <v>0.7325142857142862</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.06371938095238099</v>
+        <v>0.07699595238095243</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.3298282380952383</v>
+        <v>0.6555183333333338</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1356,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.463914285714286</v>
+        <v>0.691476190476191</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.06427257142857147</v>
+        <v>0.0775491428571429</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.3996417142857145</v>
+        <v>0.6139270476190481</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1373,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.5402380952380956</v>
+        <v>0.6454047619047624</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.06482576190476194</v>
+        <v>0.07810233333333338</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.4754123333333337</v>
+        <v>0.567302428571429</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1390,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.6206571428571432</v>
+        <v>0.5947333333333338</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.06537895238095243</v>
+        <v>0.07865552380952386</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.5552781904761908</v>
+        <v>0.5160778095238099</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1407,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.703071428571429</v>
+        <v>0.5406047619047623</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.0659321428571429</v>
+        <v>0.07920871428571433</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.6371392857142861</v>
+        <v>0.461396047619048</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1424,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.7847333333333338</v>
+        <v>0.4849000000000003</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.06648533333333337</v>
+        <v>0.07976190476190481</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.7182480000000004</v>
+        <v>0.4051380952380955</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1441,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.8629047619047625</v>
+        <v>0.429214285714286</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.06703852380952385</v>
+        <v>0.0803150952380953</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.7958662380952386</v>
+        <v>0.3488991904761907</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1458,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.934228571428572</v>
+        <v>0.3755190476190479</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.06759171428571434</v>
+        <v>0.08086828571428577</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.8666368571428577</v>
+        <v>0.2946507619047621</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1475,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.9959761904761912</v>
+        <v>0.3253238095238097</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.0681449047619048</v>
+        <v>0.08142147619047624</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.9278312857142864</v>
+        <v>0.2439023333333335</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1492,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.045695238095239</v>
+        <v>0.2797333333333335</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.06869809523809528</v>
+        <v>0.08197466666666672</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.9769971428571436</v>
+        <v>0.1977586666666668</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1509,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.081642857142858</v>
+        <v>0.2397190476190477</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.06925128571428577</v>
+        <v>0.08252785714285719</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1.012391571428572</v>
+        <v>0.1571911904761906</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1526,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.102619047619048</v>
+        <v>0.205557142857143</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.06980447619047624</v>
+        <v>0.08308104761904767</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1.032814571428572</v>
+        <v>0.1224760952380953</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1543,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.108714285714286</v>
+        <v>0.1773333333333335</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.07035766666666671</v>
+        <v>0.08363423809523815</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1.03835661904762</v>
+        <v>0.0936990952380953</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1560,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.100428571428572</v>
+        <v>0.1547285714285715</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.07091085714285719</v>
+        <v>0.08418742857142862</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1.029517714285715</v>
+        <v>0.07054114285714293</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1577,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.079504761904763</v>
+        <v>0.1368761904761906</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.07146404761904766</v>
+        <v>0.08474061904761909</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1.008040714285715</v>
+        <v>0.05213557142857148</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1594,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.049185714285715</v>
+        <v>0.1231809523809525</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.07201723809523813</v>
+        <v>0.08529380952380958</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.9771684761904769</v>
+        <v>0.0378871428571429</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1611,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.012614285714286</v>
+        <v>0.1129742857142858</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.07257042857142862</v>
+        <v>0.08584700000000006</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.9400438571428578</v>
+        <v>0.02712728571428573</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1628,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.9736428571428577</v>
+        <v>0.1053876190476191</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.0731236190476191</v>
+        <v>0.08640019047619052</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.9005192380952386</v>
+        <v>0.0189874285714286</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1645,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.9348238095238102</v>
+        <v>0.09995809523809529</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.07367680952380957</v>
+        <v>0.086953380952381</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.8611470000000006</v>
+        <v>0.01300471428571429</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1662,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.8980333333333339</v>
+        <v>0.09624571428571435</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.07423000000000005</v>
+        <v>0.08750657142857149</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.8238033333333339</v>
+        <v>0.008739142857142862</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1679,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.8639095238095243</v>
+        <v>0.09365238095238101</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.07478319047619052</v>
+        <v>0.08805976190476196</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.7891263333333338</v>
+        <v>0.005592619047619055</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1696,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.832328571428572</v>
+        <v>0.09209761904761912</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.07533638095238099</v>
+        <v>0.08861295238095243</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.7569921904761909</v>
+        <v>0.003484666666666691</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1713,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.8011428571428577</v>
+        <v>0.09121571428571434</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.07588957142857147</v>
+        <v>0.08916614285714292</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.7252532857142863</v>
+        <v>0.002049571428571428</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1730,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.7686857142857149</v>
+        <v>0.09067809523809531</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.07644276190476196</v>
+        <v>0.0897193333333334</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.6922429523809529</v>
+        <v>0.0009587619047619067</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1747,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.7325142857142862</v>
+        <v>0.09050095238095243</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.07699595238095243</v>
+        <v>0.09027252380952387</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.6555183333333338</v>
+        <v>0.00022842857142856</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1764,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.691476190476191</v>
+        <v>0.09082571428571434</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.0775491428571429</v>
+        <v>0.09082571428571434</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.6139270476190481</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1781,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.6454047619047624</v>
+        <v>0.09139476190476196</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.07810233333333338</v>
+        <v>0.09139476190476196</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.567302428571429</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1798,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.5947333333333338</v>
+        <v>0.09223095238095244</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.07865552380952386</v>
+        <v>0.09223095238095244</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.5160778095238099</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1815,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.5406047619047623</v>
+        <v>0.09320714285714291</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.07920871428571433</v>
+        <v>0.09320714285714291</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.461396047619048</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1832,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.4849000000000003</v>
+        <v>0.09417809523809531</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.07976190476190481</v>
+        <v>0.09417809523809531</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.4051380952380955</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1849,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.429214285714286</v>
+        <v>0.09522714285714291</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.0803150952380953</v>
+        <v>0.09522714285714291</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.3488991904761907</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1866,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>0.3755190476190479</v>
+        <v>0.09650047619047625</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.08086828571428577</v>
+        <v>0.09650047619047625</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.2946507619047621</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1883,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>0.3253238095238097</v>
+        <v>0.09796000000000007</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.08142147619047624</v>
+        <v>0.09796000000000007</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.2439023333333335</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1900,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.2797333333333335</v>
+        <v>0.09943190476190483</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.08197466666666672</v>
+        <v>0.09943190476190483</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.1977586666666668</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1917,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>0.2397190476190477</v>
+        <v>0.1010700000000001</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.08252785714285719</v>
+        <v>0.1010700000000001</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.1571911904761906</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1934,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>0.205557142857143</v>
+        <v>0.102842380952381</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>0.08308104761904767</v>
+        <v>0.102842380952381</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.1224760952380953</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1951,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>0.1773333333333335</v>
+        <v>0.1045390476190477</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0.08363423809523815</v>
+        <v>0.1045390476190477</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.0936990952380953</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1968,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0.1547285714285715</v>
+        <v>0.1064809523809524</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0.08418742857142862</v>
+        <v>0.1064809523809524</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.07054114285714293</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1985,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>0.1368761904761906</v>
+        <v>0.108704761904762</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0.08474061904761909</v>
+        <v>0.108704761904762</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.05213557142857148</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2002,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>0.1231809523809525</v>
+        <v>0.110804761904762</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0.08529380952380958</v>
+        <v>0.110804761904762</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.0378871428571429</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2019,16 +2011,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>0.1129742857142858</v>
+        <v>0.1129904761904763</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0.08584700000000006</v>
+        <v>0.1129904761904763</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.02712728571428573</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2036,16 +2028,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>0.1053876190476191</v>
+        <v>0.1153809523809525</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0.08640019047619052</v>
+        <v>0.1153809523809525</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.0189874285714286</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2053,16 +2045,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>0.09995809523809529</v>
+        <v>0.1177952380952382</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0.086953380952381</v>
+        <v>0.1177952380952382</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.01300471428571429</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2070,16 +2062,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>0.09624571428571435</v>
+        <v>0.1205476190476191</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0.08750657142857149</v>
+        <v>0.1205476190476191</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.008739142857142862</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2087,16 +2079,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>0.09365238095238101</v>
+        <v>0.1233714285714287</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.08805976190476196</v>
+        <v>0.1233714285714287</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.005592619047619055</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2104,16 +2096,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.09209761904761912</v>
+        <v>0.126004761904762</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.08861295238095243</v>
+        <v>0.126004761904762</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.003484666666666691</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2121,16 +2113,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>0.09121571428571434</v>
+        <v>0.1288666666666667</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.08916614285714292</v>
+        <v>0.1288666666666667</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.002049571428571428</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2138,16 +2130,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>0.09067809523809531</v>
+        <v>0.1320476190476191</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0.0897193333333334</v>
+        <v>0.1320476190476191</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.0009587619047619067</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2155,16 +2147,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0.09050095238095243</v>
+        <v>0.1356190476190478</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.09027252380952387</v>
+        <v>0.1356190476190478</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.00022842857142856</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2172,13 +2164,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>0.09082571428571434</v>
+        <v>0.1394190476190478</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.09082571428571434</v>
+        <v>0.1394190476190478</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2189,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0.09139476190476196</v>
+        <v>0.143364285714286</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0.09139476190476196</v>
+        <v>0.143364285714286</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2203,414 +2195,6 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>0.09223095238095244</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>0.09223095238095244</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>0.09320714285714291</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>0.09320714285714291</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>0.09417809523809531</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>0.09417809523809531</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>0.09522714285714291</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>0.09522714285714291</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>0.09650047619047625</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>0.09650047619047625</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>0.09796000000000007</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>0.09796000000000007</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>0.09943190476190483</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>0.09943190476190483</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>0.1010700000000001</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>0.1010700000000001</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>0.102842380952381</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>0.102842380952381</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>0.1045390476190477</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>0.1045390476190477</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>0.1064809523809524</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>0.1064809523809524</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>0.108704761904762</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>0.108704761904762</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>0.110804761904762</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>0.110804761904762</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>0.1129904761904763</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>0.1129904761904763</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>0.1153809523809525</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>0.1153809523809525</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>0.1177952380952382</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>0.1177952380952382</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>0.1205476190476191</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>0.1205476190476191</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>0.1233714285714287</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>0.1233714285714287</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>0.126004761904762</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>0.126004761904762</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>0.1288666666666667</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>0.1288666666666667</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>0.1320476190476191</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>0.1320476190476191</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>0.1356190476190478</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>0.1356190476190478</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>0.1394190476190478</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>0.1394190476190478</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>0.143364285714286</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>0.143364285714286</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2623,7 +2207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2632,7 +2216,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2649,25 +2233,9 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.252</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01006217569786533</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>-0.112</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0001675862068965597</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.252</v>
-      </c>
-      <c r="B4" s="2" t="n">
         <v>1.03835661904762</v>
       </c>
     </row>
